--- a/Doc/XmlDataDocument_170420_물리공격상향.xlsx
+++ b/Doc/XmlDataDocument_170420_물리공격상향.xlsx
@@ -5951,8 +5951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/Doc/XmlDataDocument_170420_물리공격상향.xlsx
+++ b/Doc/XmlDataDocument_170420_물리공격상향.xlsx
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="512">
   <si>
     <t>hero</t>
   </si>
@@ -2039,10 +2039,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ActiveElement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>stringvalue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2115,6 +2111,10 @@
   </si>
   <si>
     <t>원소를 부여해 검술을 강화합니다. \n기본공격력 6.5 &gt; 9.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2451,7 +2451,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2690,6 +2690,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5951,8 +5957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6026,7 +6032,7 @@
         <v>9</v>
       </c>
       <c r="Q1" s="79" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="17.25" thickTop="1">
@@ -6065,16 +6071,16 @@
       <c r="M2">
         <v>150</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>10</v>
+      <c r="N2" s="76" t="s">
+        <v>41</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="P2"/>
-      <c r="Q2" s="76" t="s">
-        <v>41</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="80"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
@@ -6112,16 +6118,16 @@
       <c r="M3">
         <v>150</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>10</v>
+      <c r="N3" s="77" t="s">
+        <v>257</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="P3"/>
-      <c r="Q3" s="77" t="s">
-        <v>257</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="80"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
@@ -6159,16 +6165,16 @@
       <c r="M4">
         <v>150</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>10</v>
+      <c r="N4" s="76" t="s">
+        <v>16</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="P4"/>
-      <c r="Q4" s="76" t="s">
-        <v>16</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="80"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
@@ -6206,16 +6212,16 @@
       <c r="M5">
         <v>150</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>10</v>
+      <c r="N5" s="77" t="s">
+        <v>18</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="P5"/>
-      <c r="Q5" s="77" t="s">
-        <v>18</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="80"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
@@ -6253,20 +6259,20 @@
       <c r="M6">
         <v>150</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>10</v>
+      <c r="N6" s="76" t="s">
+        <v>258</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="P6"/>
-      <c r="Q6" s="76" t="s">
-        <v>258</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="81"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -6275,7 +6281,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -6322,7 +6328,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -6369,7 +6375,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -6416,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -6463,7 +6469,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -6510,17 +6516,17 @@
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I12" s="37">
         <v>0</v>
@@ -6541,7 +6547,7 @@
         <v>10</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="P12" s="37"/>
       <c r="Q12" s="77" t="s">
@@ -6559,17 +6565,17 @@
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I13" s="37">
         <v>0</v>
@@ -6590,7 +6596,7 @@
         <v>10</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="P13" s="37"/>
       <c r="Q13" s="76" t="s">
@@ -6608,17 +6614,17 @@
         <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I14" s="37">
         <v>0</v>
@@ -6639,7 +6645,7 @@
         <v>10</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="P14" s="37"/>
       <c r="Q14" s="77" t="s">
@@ -6657,17 +6663,17 @@
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I15" s="37">
         <v>0</v>
@@ -6688,7 +6694,7 @@
         <v>10</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="P15" s="37"/>
       <c r="Q15" s="76" t="s">
@@ -7810,7 +7816,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>0</v>
@@ -7862,7 +7868,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>0</v>
@@ -7914,7 +7920,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>0</v>

--- a/Doc/XmlDataDocument_170420_물리공격상향.xlsx
+++ b/Doc/XmlDataDocument_170420_물리공격상향.xlsx
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="512">
   <si>
     <t>hero</t>
   </si>
@@ -2451,7 +2451,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2690,12 +2690,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5958,7 +5952,7 @@
   <dimension ref="A1:Q82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6077,10 +6071,10 @@
       <c r="O2" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="80"/>
+      <c r="P2"/>
+      <c r="Q2" s="76" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
@@ -6124,10 +6118,10 @@
       <c r="O3" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="80"/>
+      <c r="P3"/>
+      <c r="Q3" s="77" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
@@ -6171,10 +6165,10 @@
       <c r="O4" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="80"/>
+      <c r="P4"/>
+      <c r="Q4" s="76" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
@@ -6218,10 +6212,10 @@
       <c r="O5" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="80"/>
+      <c r="P5"/>
+      <c r="Q5" s="77" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
@@ -6265,10 +6259,10 @@
       <c r="O6" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="81"/>
+      <c r="P6"/>
+      <c r="Q6" s="76" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
